--- a/dss/PyomoSolver/dss/PyomoSolver/case_data.xlsx
+++ b/dss/PyomoSolver/dss/PyomoSolver/case_data.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="32">
   <si>
     <t>material</t>
   </si>
@@ -30,25 +30,13 @@
     <t>Food Waste</t>
   </si>
   <si>
-    <t>E-Waste, ICT Equipment</t>
-  </si>
-  <si>
-    <t>E-Waste</t>
-  </si>
-  <si>
     <t>entity</t>
   </si>
   <si>
-    <t>E1</t>
-  </si>
-  <si>
-    <t>E2</t>
-  </si>
-  <si>
-    <t>E3</t>
-  </si>
-  <si>
-    <t>E4</t>
+    <t>E6</t>
+  </si>
+  <si>
+    <t>E7</t>
   </si>
   <si>
     <t>company</t>
@@ -72,24 +60,12 @@
     <t>FoodWasteBuyer2</t>
   </si>
   <si>
-    <t>EWasteBuyer1</t>
-  </si>
-  <si>
-    <t>EWasteBuyer2</t>
-  </si>
-  <si>
     <t>FoodWasteSeller2</t>
   </si>
   <si>
     <t>FoodWasteSeller1</t>
   </si>
   <si>
-    <t>EWasteSeller1</t>
-  </si>
-  <si>
-    <t>EWasteSeller2</t>
-  </si>
-  <si>
     <t>138600</t>
   </si>
   <si>
@@ -102,12 +78,6 @@
     <t>638996</t>
   </si>
   <si>
-    <t>605897</t>
-  </si>
-  <si>
-    <t>597656</t>
-  </si>
-  <si>
     <t>1.3053214796692</t>
   </si>
   <si>
@@ -120,9 +90,6 @@
     <t>1.32454054326825</t>
   </si>
   <si>
-    <t>1.33253455690371</t>
-  </si>
-  <si>
     <t>103.773948937801</t>
   </si>
   <si>
@@ -133,9 +100,6 @@
   </si>
   <si>
     <t>103.639491831506</t>
-  </si>
-  <si>
-    <t>103.751544753156</t>
   </si>
   <si>
     <t>B</t>
@@ -511,7 +475,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -527,16 +491,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -544,7 +498,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A13"/>
+  <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -552,67 +506,37 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>56</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3">
-        <v>57</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4">
-        <v>59</v>
+        <v>262</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5">
-        <v>60</v>
+        <v>261</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6">
-        <v>262</v>
+      <c r="A6" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" t="s">
-        <v>8</v>
+      <c r="A7" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -622,7 +546,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -630,176 +554,102 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>56</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
         <v>14</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" t="s">
         <v>22</v>
       </c>
-      <c r="D2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E2" t="s">
-        <v>33</v>
-      </c>
       <c r="F2" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>57</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
         <v>15</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" t="s">
         <v>23</v>
       </c>
-      <c r="D3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" t="s">
-        <v>34</v>
-      </c>
       <c r="F3" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>59</v>
+        <v>262</v>
       </c>
       <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
         <v>16</v>
       </c>
-      <c r="C4" t="s">
-        <v>22</v>
-      </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E4" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="F4" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>60</v>
+        <v>261</v>
       </c>
       <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
         <v>17</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
       <c r="D5" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="E5" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="F5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6">
-        <v>262</v>
-      </c>
-      <c r="B6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" t="s">
-        <v>35</v>
-      </c>
-      <c r="F6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7">
-        <v>261</v>
-      </c>
-      <c r="B7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8">
-        <v>263</v>
-      </c>
-      <c r="B8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" t="s">
-        <v>26</v>
-      </c>
-      <c r="F8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9">
-        <v>264</v>
-      </c>
-      <c r="B9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" t="s">
         <v>27</v>
-      </c>
-      <c r="D9" t="s">
-        <v>32</v>
-      </c>
-      <c r="E9" t="s">
-        <v>37</v>
-      </c>
-      <c r="F9" t="s">
-        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -809,7 +659,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -817,19 +667,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -840,13 +690,13 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="D2">
         <v>-77</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -857,47 +707,13 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="D3">
-        <v>-60</v>
+        <v>-76</v>
       </c>
       <c r="E3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4">
-        <v>263</v>
-      </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4">
-        <v>100</v>
-      </c>
-      <c r="D4">
-        <v>100</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5">
-        <v>264</v>
-      </c>
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5">
-        <v>1000</v>
-      </c>
-      <c r="D5">
-        <v>110</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
+        <v>1.5</v>
       </c>
     </row>
   </sheetData>
@@ -907,7 +723,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -915,72 +731,44 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2">
-        <v>56</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
       <c r="C2">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="D2">
-        <v>21</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3">
-        <v>57</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
       </c>
       <c r="C3">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="D3">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4">
-        <v>59</v>
-      </c>
-      <c r="B4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4">
-        <v>10</v>
-      </c>
-      <c r="D4">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5">
-        <v>60</v>
-      </c>
-      <c r="B5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5">
-        <v>10</v>
-      </c>
-      <c r="D5">
-        <v>150</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -990,7 +778,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -998,72 +786,44 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
       <c r="C2">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="D2">
-        <v>41</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="D3">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>300</v>
-      </c>
-      <c r="D4">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5">
-        <v>300</v>
-      </c>
-      <c r="D5">
-        <v>42</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -1073,7 +833,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1081,15 +841,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B2">
         <v>30000</v>
@@ -1097,25 +857,9 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B3">
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4">
-        <v>35000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5">
         <v>35000</v>
       </c>
     </row>
@@ -1126,15 +870,15 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M13"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1">
         <v>0</v>
@@ -1154,107 +898,59 @@
       <c r="G1" s="1">
         <v>5</v>
       </c>
-      <c r="H1" s="1">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>262</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" s="1">
-        <v>262</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" s="1">
         <v>261</v>
       </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="A8" s="1">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="A9" s="1">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="A10" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="A11" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="A12" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
-      <c r="A13" s="1" t="s">
-        <v>8</v>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1264,15 +960,15 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M13"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1">
         <v>0</v>
@@ -1292,107 +988,59 @@
       <c r="G1" s="1">
         <v>5</v>
       </c>
-      <c r="H1" s="1">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>262</v>
+      </c>
+      <c r="B4">
+        <v>16.157</v>
+      </c>
+      <c r="C4">
+        <v>16.099</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" s="1">
-        <v>262</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" s="1">
         <v>261</v>
       </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="A8" s="1">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="A9" s="1">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="A10" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="A11" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="A12" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
-      <c r="A13" s="1" t="s">
-        <v>8</v>
+      <c r="B5">
+        <v>18.131</v>
+      </c>
+      <c r="C5">
+        <v>18.073</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
